--- a/data/trans_orig/P34E2H-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34E2H-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C76A6871-2F9F-43F4-A8E7-7645A01CE116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A68FB9B-0DFB-4BAA-94B3-E818F9149135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{227B226E-5143-457A-98D3-667E6710477F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F2511681-D0A6-4220-B745-2C9B027E49FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="281">
   <si>
     <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2015 (Tasa respuesta: 24,97%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>2,03%</t>
   </si>
   <si>
-    <t>8,54%</t>
+    <t>7,3%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>5,09%</t>
+    <t>4,26%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -101,760 +101,772 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>4,24%</t>
+    <t>4,34%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>3,76%</t>
+    <t>4,47%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
+    <t>18,27%</t>
   </si>
   <si>
     <t>10,38%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>54,38%</t>
   </si>
   <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
   </si>
   <si>
     <t>63,11%</t>
   </si>
   <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>57,86%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>20,55%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
   </si>
   <si>
     <t>16,89%</t>
@@ -863,7 +875,7 @@
     <t>15,07%</t>
   </si>
   <si>
-    <t>18,88%</t>
+    <t>18,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1278,7 +1290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CC507A-FE9F-4761-A8EF-C4E0A62DE188}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F83AE7-ACEC-4E5F-B80C-0AB893DE6BE2}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1675,10 +1687,10 @@
         <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1687,13 +1699,13 @@
         <v>7346</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,13 +1720,13 @@
         <v>5842</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1723,10 +1735,10 @@
         <v>2871</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>55</v>
@@ -1744,7 +1756,7 @@
         <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1759,13 +1771,13 @@
         <v>28038</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1774,13 +1786,13 @@
         <v>4943</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -1789,13 +1801,13 @@
         <v>32980</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1822,13 @@
         <v>52961</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>54</v>
@@ -1825,13 +1837,13 @@
         <v>55929</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>103</v>
@@ -1840,13 +1852,13 @@
         <v>108889</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,13 +1873,13 @@
         <v>15861</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -1876,13 +1888,13 @@
         <v>22479</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -1891,13 +1903,13 @@
         <v>38339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1924,13 @@
         <v>117776</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -1927,13 +1939,13 @@
         <v>91620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>201</v>
@@ -1942,18 +1954,18 @@
         <v>209395</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B15" s="5">
         <v>9</v>
@@ -1971,7 +1983,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -1980,13 +1992,13 @@
         <v>903</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -1995,13 +2007,13 @@
         <v>903</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2028,13 @@
         <v>7723</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2031,13 +2043,13 @@
         <v>3049</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2046,13 +2058,13 @@
         <v>10772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,13 +2079,13 @@
         <v>1264</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2082,13 +2094,13 @@
         <v>827</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2097,13 +2109,13 @@
         <v>2091</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,13 +2130,13 @@
         <v>9378</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2139,7 +2151,7 @@
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -2148,13 +2160,13 @@
         <v>11131</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,13 +2181,13 @@
         <v>1978</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2199,13 +2211,13 @@
         <v>1978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2232,13 @@
         <v>20285</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2235,13 +2247,13 @@
         <v>6878</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -2250,13 +2262,13 @@
         <v>27162</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2283,13 @@
         <v>31288</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -2286,13 +2298,13 @@
         <v>11147</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7">
         <v>41</v>
@@ -2301,13 +2313,13 @@
         <v>42435</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2334,13 @@
         <v>151123</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -2337,13 +2349,13 @@
         <v>46964</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>187</v>
@@ -2352,13 +2364,13 @@
         <v>198087</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2385,13 @@
         <v>376735</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H23" s="7">
         <v>245</v>
@@ -2388,13 +2400,13 @@
         <v>254279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M23" s="7">
         <v>605</v>
@@ -2403,13 +2415,13 @@
         <v>631013</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2436,13 @@
         <v>85788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>76</v>
@@ -2439,13 +2451,13 @@
         <v>78314</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>154</v>
@@ -2454,13 +2466,13 @@
         <v>164102</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2487,13 @@
         <v>685560</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" s="7">
         <v>392</v>
@@ -2490,13 +2502,13 @@
         <v>404114</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M25" s="7">
         <v>1039</v>
@@ -2505,18 +2517,18 @@
         <v>1089674</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B26" s="5">
         <v>9</v>
@@ -2534,7 +2546,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2549,7 +2561,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2585,7 +2597,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2600,7 +2612,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2630,13 +2642,13 @@
         <v>934</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -2645,13 +2657,13 @@
         <v>902</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -2666,7 +2678,7 @@
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,7 +2699,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2702,7 +2714,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2732,13 +2744,13 @@
         <v>5290</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2753,7 +2765,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -2762,13 +2774,13 @@
         <v>5290</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2795,13 @@
         <v>865</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -2798,13 +2810,13 @@
         <v>3052</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -2813,13 +2825,13 @@
         <v>3917</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,10 +2849,10 @@
         <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -2849,13 +2861,13 @@
         <v>4073</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -2864,13 +2876,13 @@
         <v>9401</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2897,13 @@
         <v>38317</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H33" s="7">
         <v>18</v>
@@ -2900,13 +2912,13 @@
         <v>19366</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M33" s="7">
         <v>54</v>
@@ -2915,13 +2927,13 @@
         <v>57682</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2948,13 @@
         <v>133607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>120</v>
@@ -2951,13 +2963,13 @@
         <v>123041</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M34" s="7">
         <v>239</v>
@@ -2966,13 +2978,13 @@
         <v>256647</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2999,13 @@
         <v>48117</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
@@ -3002,13 +3014,13 @@
         <v>40297</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M35" s="7">
         <v>80</v>
@@ -3017,13 +3029,13 @@
         <v>88413</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3050,13 @@
         <v>232457</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H36" s="7">
         <v>184</v>
@@ -3053,13 +3065,13 @@
         <v>190730</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M36" s="7">
         <v>393</v>
@@ -3068,13 +3080,13 @@
         <v>423186</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3109,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3106,13 +3118,13 @@
         <v>903</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3121,13 +3133,13 @@
         <v>903</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3154,13 @@
         <v>10112</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -3157,13 +3169,13 @@
         <v>3929</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="M38" s="7">
         <v>13</v>
@@ -3172,13 +3184,13 @@
         <v>14042</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3205,13 @@
         <v>3103</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
@@ -3208,13 +3220,13 @@
         <v>1728</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="M39" s="7">
         <v>5</v>
@@ -3223,13 +3235,13 @@
         <v>4831</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3256,13 @@
         <v>13294</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -3259,13 +3271,13 @@
         <v>2638</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="M40" s="7">
         <v>16</v>
@@ -3274,13 +3286,13 @@
         <v>15932</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3307,13 @@
         <v>10461</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3310,13 +3322,13 @@
         <v>960</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M41" s="7">
         <v>11</v>
@@ -3325,13 +3337,13 @@
         <v>11421</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3358,13 @@
         <v>25822</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H42" s="7">
         <v>13</v>
@@ -3361,13 +3373,13 @@
         <v>12604</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M42" s="7">
         <v>38</v>
@@ -3376,13 +3388,13 @@
         <v>38426</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3409,13 @@
         <v>42458</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H43" s="7">
         <v>18</v>
@@ -3412,13 +3424,13 @@
         <v>18090</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M43" s="7">
         <v>59</v>
@@ -3427,13 +3439,13 @@
         <v>60548</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3460,13 @@
         <v>217477</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="H44" s="7">
         <v>69</v>
@@ -3463,13 +3475,13 @@
         <v>71272</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M44" s="7">
         <v>274</v>
@@ -3478,13 +3490,13 @@
         <v>288749</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3511,13 @@
         <v>563302</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H45" s="7">
         <v>419</v>
@@ -3514,13 +3526,13 @@
         <v>433249</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M45" s="7">
         <v>947</v>
@@ -3529,13 +3541,13 @@
         <v>996550</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3562,13 @@
         <v>149765</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H46" s="7">
         <v>133</v>
@@ -3565,13 +3577,13 @@
         <v>141090</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M46" s="7">
         <v>269</v>
@@ -3580,13 +3592,13 @@
         <v>290855</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3613,13 @@
         <v>1035792</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H47" s="7">
         <v>663</v>
@@ -3616,13 +3628,13 @@
         <v>686464</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M47" s="7">
         <v>1633</v>
@@ -3631,18 +3643,18 @@
         <v>1722256</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34E2H-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34E2H-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A68FB9B-0DFB-4BAA-94B3-E818F9149135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{325E719B-34E0-4766-A5D7-AE36D9DE1188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F2511681-D0A6-4220-B745-2C9B027E49FA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C084055C-7126-47B8-A35B-AF844993CC31}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="281">
-  <si>
-    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2015 (Tasa respuesta: 24,97%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="274">
+  <si>
+    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2016 (Tasa respuesta: 24,97%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -86,13 +86,13 @@
     <t>2,03%</t>
   </si>
   <si>
-    <t>7,3%</t>
+    <t>6,43%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>4,26%</t>
+    <t>4,8%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -101,682 +101,661 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>4,34%</t>
+    <t>4,56%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>4,47%</t>
+    <t>3,92%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>3,05%</t>
   </si>
   <si>
     <t>5,5%</t>
@@ -785,88 +764,88 @@
     <t>2,64%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>18,27%</t>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
   </si>
   <si>
     <t>10,38%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
   </si>
   <si>
     <t>54,38%</t>
   </si>
   <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
   </si>
   <si>
     <t>63,11%</t>
   </si>
   <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
   </si>
   <si>
     <t>57,86%</t>
   </si>
   <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>12,26%</t>
   </si>
   <si>
     <t>20,55%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
   </si>
   <si>
     <t>16,89%</t>
@@ -875,7 +854,7 @@
     <t>15,07%</t>
   </si>
   <si>
-    <t>18,82%</t>
+    <t>18,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1290,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F83AE7-ACEC-4E5F-B80C-0AB893DE6BE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3732195-7191-4445-B5B9-36A90F5A5661}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1621,10 +1600,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1633,13 +1612,13 @@
         <v>960</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1648,13 +1627,13 @@
         <v>4153</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1669,13 +1648,13 @@
         <v>4672</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1684,13 +1663,13 @@
         <v>2674</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1699,13 +1678,13 @@
         <v>7346</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,13 +1699,13 @@
         <v>5842</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1735,13 +1714,13 @@
         <v>2871</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -1750,13 +1729,13 @@
         <v>8712</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,13 +1750,13 @@
         <v>28038</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1786,13 +1765,13 @@
         <v>4943</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -1801,13 +1780,13 @@
         <v>32980</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,13 +1801,13 @@
         <v>52961</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>54</v>
@@ -1837,13 +1816,13 @@
         <v>55929</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>103</v>
@@ -1852,13 +1831,13 @@
         <v>108889</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1852,13 @@
         <v>15861</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -1888,13 +1867,13 @@
         <v>22479</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -1903,13 +1882,13 @@
         <v>38339</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1903,13 @@
         <v>117776</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -1939,13 +1918,13 @@
         <v>91620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>201</v>
@@ -1954,18 +1933,18 @@
         <v>209395</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="5">
         <v>9</v>
@@ -1983,7 +1962,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -1992,13 +1971,13 @@
         <v>903</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -2007,13 +1986,13 @@
         <v>903</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,13 +2007,13 @@
         <v>7723</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2043,13 +2022,13 @@
         <v>3049</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2058,13 +2037,13 @@
         <v>10772</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,13 +2058,13 @@
         <v>1264</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2094,13 +2073,13 @@
         <v>827</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2109,13 +2088,13 @@
         <v>2091</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,13 +2109,13 @@
         <v>9378</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2151,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -2160,13 +2139,13 @@
         <v>11131</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,13 +2160,13 @@
         <v>1978</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2202,7 +2181,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2211,13 +2190,13 @@
         <v>1978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,13 +2211,13 @@
         <v>20285</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2247,13 +2226,13 @@
         <v>6878</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -2262,13 +2241,13 @@
         <v>27162</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,13 +2262,13 @@
         <v>31288</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -2298,13 +2277,13 @@
         <v>11147</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M21" s="7">
         <v>41</v>
@@ -2313,13 +2292,13 @@
         <v>42435</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2313,13 @@
         <v>151123</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -2349,13 +2328,13 @@
         <v>46964</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>187</v>
@@ -2364,13 +2343,13 @@
         <v>198087</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2364,13 @@
         <v>376735</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>245</v>
@@ -2400,13 +2379,13 @@
         <v>254279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>605</v>
@@ -2415,13 +2394,13 @@
         <v>631013</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2415,13 @@
         <v>85788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>76</v>
@@ -2451,13 +2430,13 @@
         <v>78314</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>154</v>
@@ -2466,13 +2445,13 @@
         <v>164102</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,13 +2466,13 @@
         <v>685560</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
         <v>392</v>
@@ -2502,13 +2481,13 @@
         <v>404114</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M25" s="7">
         <v>1039</v>
@@ -2517,18 +2496,18 @@
         <v>1089674</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B26" s="5">
         <v>9</v>
@@ -2546,7 +2525,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2561,7 +2540,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2576,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,7 +2576,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2612,7 +2591,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2627,7 +2606,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2621,13 @@
         <v>934</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -2657,13 +2636,13 @@
         <v>902</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -2678,7 +2657,7 @@
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,7 +2678,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2714,7 +2693,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2729,7 +2708,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2723,13 @@
         <v>5290</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2765,7 +2744,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -2774,13 +2753,13 @@
         <v>5290</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2774,13 @@
         <v>865</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -2810,13 +2789,13 @@
         <v>3052</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -2825,13 +2804,13 @@
         <v>3917</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,10 +2828,10 @@
         <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -2861,13 +2840,13 @@
         <v>4073</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -2876,13 +2855,13 @@
         <v>9401</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2876,13 @@
         <v>38317</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H33" s="7">
         <v>18</v>
@@ -2912,13 +2891,13 @@
         <v>19366</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M33" s="7">
         <v>54</v>
@@ -2927,13 +2906,13 @@
         <v>57682</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2927,13 @@
         <v>133607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H34" s="7">
         <v>120</v>
@@ -2963,13 +2942,13 @@
         <v>123041</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M34" s="7">
         <v>239</v>
@@ -2978,13 +2957,13 @@
         <v>256647</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2978,13 @@
         <v>48117</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
@@ -3014,13 +2993,13 @@
         <v>40297</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="M35" s="7">
         <v>80</v>
@@ -3029,13 +3008,13 @@
         <v>88413</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3029,13 @@
         <v>232457</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H36" s="7">
         <v>184</v>
@@ -3065,13 +3044,13 @@
         <v>190730</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M36" s="7">
         <v>393</v>
@@ -3080,13 +3059,13 @@
         <v>423186</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3088,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3118,13 +3097,13 @@
         <v>903</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3133,13 +3112,13 @@
         <v>903</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3133,13 @@
         <v>10112</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -3169,13 +3148,13 @@
         <v>3929</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M38" s="7">
         <v>13</v>
@@ -3184,13 +3163,13 @@
         <v>14042</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3184,13 @@
         <v>3103</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
@@ -3220,13 +3199,13 @@
         <v>1728</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M39" s="7">
         <v>5</v>
@@ -3235,13 +3214,13 @@
         <v>4831</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3235,13 @@
         <v>13294</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -3271,13 +3250,13 @@
         <v>2638</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="M40" s="7">
         <v>16</v>
@@ -3286,13 +3265,13 @@
         <v>15932</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3286,13 @@
         <v>10461</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3322,13 +3301,13 @@
         <v>960</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="M41" s="7">
         <v>11</v>
@@ -3337,13 +3316,13 @@
         <v>11421</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3337,13 @@
         <v>25822</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H42" s="7">
         <v>13</v>
@@ -3373,13 +3352,13 @@
         <v>12604</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M42" s="7">
         <v>38</v>
@@ -3388,13 +3367,13 @@
         <v>38426</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3388,13 @@
         <v>42458</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H43" s="7">
         <v>18</v>
@@ -3424,13 +3403,13 @@
         <v>18090</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M43" s="7">
         <v>59</v>
@@ -3439,13 +3418,13 @@
         <v>60548</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3439,13 @@
         <v>217477</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="H44" s="7">
         <v>69</v>
@@ -3475,13 +3454,13 @@
         <v>71272</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M44" s="7">
         <v>274</v>
@@ -3490,13 +3469,13 @@
         <v>288749</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3490,13 @@
         <v>563302</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H45" s="7">
         <v>419</v>
@@ -3526,13 +3505,13 @@
         <v>433249</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M45" s="7">
         <v>947</v>
@@ -3541,13 +3520,13 @@
         <v>996550</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3541,13 @@
         <v>149765</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>273</v>
+        <v>59</v>
       </c>
       <c r="H46" s="7">
         <v>133</v>
@@ -3577,13 +3556,13 @@
         <v>141090</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M46" s="7">
         <v>269</v>
@@ -3592,13 +3571,13 @@
         <v>290855</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3592,13 @@
         <v>1035792</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H47" s="7">
         <v>663</v>
@@ -3628,13 +3607,13 @@
         <v>686464</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M47" s="7">
         <v>1633</v>
@@ -3643,18 +3622,18 @@
         <v>1722256</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34E2H-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34E2H-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{325E719B-34E0-4766-A5D7-AE36D9DE1188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83AEBEBC-2630-44D2-9C3A-A8335975BFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C084055C-7126-47B8-A35B-AF844993CC31}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{21E7C84E-7213-4073-B69B-31B8EA666935}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="274">
-  <si>
-    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2016 (Tasa respuesta: 24,97%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="213">
+  <si>
+    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2016 (Tasa respuesta: 98,93%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,787 +74,604 @@
     <t>0%</t>
   </si>
   <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1269,7 +1086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3732195-7191-4445-B5B9-36A90F5A5661}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9FD8C3-4B19-4038-94EE-21CFFA045C1C}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1495,13 +1312,13 @@
         <v>904</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1525,13 +1342,13 @@
         <v>904</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,13 +1363,13 @@
         <v>3916</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1561,13 +1378,13 @@
         <v>885</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -1576,13 +1393,13 @@
         <v>4801</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1597,13 +1414,13 @@
         <v>3193</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1612,13 +1429,13 @@
         <v>960</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1627,13 +1444,13 @@
         <v>4153</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1648,13 +1465,13 @@
         <v>4672</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1663,13 +1480,13 @@
         <v>2674</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1678,13 +1495,13 @@
         <v>7346</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1696,16 +1513,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>5842</v>
+        <v>5841</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1714,13 +1531,13 @@
         <v>2871</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -1729,13 +1546,13 @@
         <v>8712</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,13 +1567,13 @@
         <v>28038</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1765,13 +1582,13 @@
         <v>4943</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -1780,13 +1597,13 @@
         <v>32980</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,13 +1618,13 @@
         <v>52961</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>54</v>
@@ -1816,28 +1633,28 @@
         <v>55929</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
         <v>103</v>
       </c>
       <c r="N12" s="7">
-        <v>108889</v>
+        <v>108890</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1846,49 +1663,49 @@
         <v>0</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>659</v>
       </c>
       <c r="D13" s="7">
-        <v>15861</v>
+        <v>647469</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>820</v>
       </c>
       <c r="I13" s="7">
-        <v>22479</v>
+        <v>921100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>35</v>
+        <v>1479</v>
       </c>
       <c r="N13" s="7">
-        <v>38339</v>
+        <v>1568569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,54 +1714,54 @@
         <v>3</v>
       </c>
       <c r="C14" s="7">
-        <v>114</v>
+        <v>757</v>
       </c>
       <c r="D14" s="7">
-        <v>117776</v>
+        <v>749384</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>87</v>
+        <v>888</v>
       </c>
       <c r="I14" s="7">
-        <v>91620</v>
+        <v>990241</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
-        <v>201</v>
+        <v>1645</v>
       </c>
       <c r="N14" s="7">
-        <v>209395</v>
+        <v>1739625</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B15" s="5">
         <v>9</v>
@@ -1962,7 +1779,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -1971,13 +1788,13 @@
         <v>903</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -1986,13 +1803,13 @@
         <v>903</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,13 +1824,13 @@
         <v>7723</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2022,13 +1839,13 @@
         <v>3049</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2037,13 +1854,13 @@
         <v>10772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +1875,13 @@
         <v>1264</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2073,13 +1890,13 @@
         <v>827</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2088,13 +1905,13 @@
         <v>2091</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,13 +1926,13 @@
         <v>9378</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2124,13 +1941,13 @@
         <v>1753</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -2139,13 +1956,13 @@
         <v>11131</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,13 +1977,13 @@
         <v>1978</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2181,7 +1998,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2190,13 +2007,13 @@
         <v>1978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,13 +2028,13 @@
         <v>20285</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2226,13 +2043,13 @@
         <v>6878</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -2241,13 +2058,13 @@
         <v>27162</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,13 +2079,13 @@
         <v>31288</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -2277,13 +2094,13 @@
         <v>11147</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="M21" s="7">
         <v>41</v>
@@ -2292,13 +2109,13 @@
         <v>42435</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2130,13 @@
         <v>151123</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -2328,13 +2145,13 @@
         <v>46964</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>187</v>
@@ -2343,13 +2160,13 @@
         <v>198087</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2181,13 @@
         <v>376735</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>245</v>
@@ -2379,28 +2196,28 @@
         <v>254279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>605</v>
       </c>
       <c r="N23" s="7">
-        <v>631013</v>
+        <v>631014</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,49 +2226,49 @@
         <v>0</v>
       </c>
       <c r="C24" s="7">
-        <v>78</v>
+        <v>1367</v>
       </c>
       <c r="D24" s="7">
-        <v>85788</v>
+        <v>1457792</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="H24" s="7">
-        <v>76</v>
+        <v>1571</v>
       </c>
       <c r="I24" s="7">
-        <v>78314</v>
+        <v>1641132</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
-        <v>154</v>
+        <v>2938</v>
       </c>
       <c r="N24" s="7">
-        <v>164102</v>
+        <v>3098924</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,54 +2277,54 @@
         <v>3</v>
       </c>
       <c r="C25" s="7">
-        <v>647</v>
+        <v>1936</v>
       </c>
       <c r="D25" s="7">
-        <v>685560</v>
+        <v>2057564</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H25" s="7">
-        <v>392</v>
+        <v>1887</v>
       </c>
       <c r="I25" s="7">
-        <v>404114</v>
+        <v>1966932</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="M25" s="7">
-        <v>1039</v>
+        <v>3823</v>
       </c>
       <c r="N25" s="7">
-        <v>1089674</v>
+        <v>4024496</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="B26" s="5">
         <v>9</v>
@@ -2525,7 +2342,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2540,7 +2357,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2555,7 +2372,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,7 +2393,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2591,7 +2408,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2606,7 +2423,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2438,13 @@
         <v>934</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -2636,13 +2453,13 @@
         <v>902</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -2651,13 +2468,13 @@
         <v>1835</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,7 +2495,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2693,7 +2510,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2708,7 +2525,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2540,13 @@
         <v>5290</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2744,7 +2561,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -2753,13 +2570,13 @@
         <v>5290</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,13 +2591,13 @@
         <v>865</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -2789,13 +2606,13 @@
         <v>3052</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -2804,13 +2621,13 @@
         <v>3917</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2642,13 @@
         <v>5328</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -2840,13 +2657,13 @@
         <v>4073</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -2855,13 +2672,13 @@
         <v>9401</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2693,13 @@
         <v>38317</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="H33" s="7">
         <v>18</v>
@@ -2891,13 +2708,13 @@
         <v>19366</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="M33" s="7">
         <v>54</v>
@@ -2906,13 +2723,13 @@
         <v>57682</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,16 +2741,16 @@
         <v>119</v>
       </c>
       <c r="D34" s="7">
-        <v>133607</v>
+        <v>133606</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="H34" s="7">
         <v>120</v>
@@ -2942,13 +2759,13 @@
         <v>123041</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="M34" s="7">
         <v>239</v>
@@ -2957,13 +2774,13 @@
         <v>256647</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,49 +2789,49 @@
         <v>0</v>
       </c>
       <c r="C35" s="7">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="D35" s="7">
-        <v>48117</v>
+        <v>347712</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="H35" s="7">
-        <v>38</v>
+        <v>371</v>
       </c>
       <c r="I35" s="7">
-        <v>40297</v>
+        <v>389086</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="M35" s="7">
-        <v>80</v>
+        <v>691</v>
       </c>
       <c r="N35" s="7">
-        <v>88413</v>
+        <v>736798</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,49 +2840,49 @@
         <v>3</v>
       </c>
       <c r="C36" s="7">
-        <v>209</v>
+        <v>487</v>
       </c>
       <c r="D36" s="7">
-        <v>232457</v>
+        <v>532052</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H36" s="7">
-        <v>184</v>
+        <v>517</v>
       </c>
       <c r="I36" s="7">
-        <v>190730</v>
+        <v>539519</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="M36" s="7">
-        <v>393</v>
+        <v>1004</v>
       </c>
       <c r="N36" s="7">
-        <v>423186</v>
+        <v>1071571</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,7 +2905,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3097,13 +2914,13 @@
         <v>903</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3112,13 +2929,13 @@
         <v>903</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>208</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +2950,13 @@
         <v>10112</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -3148,13 +2965,13 @@
         <v>3929</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="M38" s="7">
         <v>13</v>
@@ -3163,13 +2980,13 @@
         <v>14042</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3001,13 @@
         <v>3103</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
@@ -3199,13 +3016,13 @@
         <v>1728</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="M39" s="7">
         <v>5</v>
@@ -3214,13 +3031,13 @@
         <v>4831</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3052,13 @@
         <v>13294</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>225</v>
+        <v>93</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -3250,13 +3067,13 @@
         <v>2638</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="M40" s="7">
         <v>16</v>
@@ -3265,13 +3082,13 @@
         <v>15932</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3103,13 @@
         <v>10461</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3301,13 +3118,13 @@
         <v>960</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="M41" s="7">
         <v>11</v>
@@ -3316,13 +3133,13 @@
         <v>11421</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3154,13 @@
         <v>25822</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="H42" s="7">
         <v>13</v>
@@ -3352,13 +3169,13 @@
         <v>12604</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="M42" s="7">
         <v>38</v>
@@ -3367,13 +3184,13 @@
         <v>38426</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3205,13 @@
         <v>42458</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="H43" s="7">
         <v>18</v>
@@ -3403,13 +3220,13 @@
         <v>18090</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>241</v>
+        <v>24</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="M43" s="7">
         <v>59</v>
@@ -3418,13 +3235,13 @@
         <v>60548</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>244</v>
+        <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3256,13 @@
         <v>217477</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="H44" s="7">
         <v>69</v>
@@ -3454,13 +3271,13 @@
         <v>71272</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="M44" s="7">
         <v>274</v>
@@ -3469,13 +3286,13 @@
         <v>288749</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3307,13 @@
         <v>563302</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="H45" s="7">
         <v>419</v>
@@ -3505,13 +3322,13 @@
         <v>433249</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M45" s="7">
         <v>947</v>
@@ -3520,13 +3337,13 @@
         <v>996550</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,49 +3352,49 @@
         <v>0</v>
       </c>
       <c r="C46" s="7">
-        <v>136</v>
+        <v>2346</v>
       </c>
       <c r="D46" s="7">
-        <v>149765</v>
+        <v>2452972</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="H46" s="7">
-        <v>133</v>
+        <v>2762</v>
       </c>
       <c r="I46" s="7">
-        <v>141090</v>
+        <v>2951318</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="M46" s="7">
-        <v>269</v>
+        <v>5108</v>
       </c>
       <c r="N46" s="7">
-        <v>290855</v>
+        <v>5404292</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,54 +3403,54 @@
         <v>3</v>
       </c>
       <c r="C47" s="7">
-        <v>970</v>
+        <v>3180</v>
       </c>
       <c r="D47" s="7">
-        <v>1035792</v>
+        <v>3339000</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H47" s="7">
-        <v>663</v>
+        <v>3292</v>
       </c>
       <c r="I47" s="7">
-        <v>686464</v>
+        <v>3496692</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="M47" s="7">
-        <v>1633</v>
+        <v>6472</v>
       </c>
       <c r="N47" s="7">
-        <v>1722256</v>
+        <v>6835693</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
